--- a/back/public/dealer/files/salesorder/excel/salesorder_1.xlsx
+++ b/back/public/dealer/files/salesorder/excel/salesorder_1.xlsx
@@ -32,7 +32,7 @@
     <t>SO NO</t>
   </si>
   <si>
-    <t>SS-02/101/03/JUL/2025</t>
+    <t>SS-01/101/04/JUL/2025</t>
   </si>
   <si>
     <t>DELIVERED TO:</t>
@@ -98,7 +98,7 @@
     <t>AH300-0025</t>
   </si>
   <si>
-    <t>yesss</t>
+    <t>No Description</t>
   </si>
   <si>
     <t>MT</t>

--- a/back/public/dealer/files/salesorder/excel/salesorder_1.xlsx
+++ b/back/public/dealer/files/salesorder/excel/salesorder_1.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="38">
   <si>
     <t xml:space="preserve">PT. SUNWAY TREK MASINDO
 (A MEMBER OF THE SUNWAY GROUP)
@@ -102,6 +102,12 @@
   </si>
   <si>
     <t>MT</t>
+  </si>
+  <si>
+    <t>AH600-0200</t>
+  </si>
+  <si>
+    <t>Pressure: 51, Radius: 2</t>
   </si>
   <si>
     <t>TOTAL</t>
@@ -746,7 +752,7 @@
   <sheetPr>
     <tabColor rgb="FFB8CCE4"/>
   </sheetPr>
-  <dimension ref="A1:I20"/>
+  <dimension ref="A1:I22"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <cols>
     <col min="1" max="1" width="15" customWidth="1"/>
@@ -935,57 +941,115 @@
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A17" s="11" t="s">
+      <c r="A17" s="8">
+        <v>2</v>
+      </c>
+      <c r="B17" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="B17" s="11"/>
-      <c r="C17" s="11"/>
-      <c r="D17" s="11"/>
-      <c r="E17" s="11"/>
-      <c r="F17" s="11"/>
-      <c r="G17" s="11"/>
-      <c r="H17" s="11"/>
-      <c r="I17" s="12">
-        <v>333000000</v>
+      <c r="C17" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="D17" s="10">
+        <v>1</v>
+      </c>
+      <c r="E17" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="F17" s="10">
+        <v>5000</v>
+      </c>
+      <c r="G17" s="10">
+        <v>550</v>
+      </c>
+      <c r="H17" s="10">
+        <v>5550</v>
+      </c>
+      <c r="I17" s="10">
+        <v>5550</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A18" s="8">
+        <v>3</v>
+      </c>
+      <c r="B18" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="C18" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="D18" s="10">
+        <v>1</v>
+      </c>
+      <c r="E18" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="F18" s="10">
+        <v>3000</v>
+      </c>
+      <c r="G18" s="10">
+        <v>330</v>
+      </c>
+      <c r="H18" s="10">
+        <v>3330</v>
+      </c>
+      <c r="I18" s="10">
+        <v>3330</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A19" s="13" t="s">
-        <v>30</v>
-      </c>
-      <c r="B19" s="8" t="s">
+      <c r="A19" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="C19" s="13" t="s">
+      <c r="B19" s="11"/>
+      <c r="C19" s="11"/>
+      <c r="D19" s="11"/>
+      <c r="E19" s="11"/>
+      <c r="F19" s="11"/>
+      <c r="G19" s="11"/>
+      <c r="H19" s="11"/>
+      <c r="I19" s="12">
+        <v>333008880</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A21" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="D19" s="14"/>
-      <c r="E19" s="14"/>
-      <c r="F19" s="15"/>
-      <c r="G19" s="13" t="s">
+      <c r="B21" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="H19" s="14"/>
-      <c r="I19" s="15"/>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A20" s="13" t="s">
+      <c r="C21" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="B20" s="8" t="s">
+      <c r="D21" s="14"/>
+      <c r="E21" s="14"/>
+      <c r="F21" s="15"/>
+      <c r="G21" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="C20" s="8" t="s">
+      <c r="H21" s="14"/>
+      <c r="I21" s="15"/>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A22" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="B22" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="C22" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="D20" s="16"/>
-      <c r="E20" s="16"/>
-      <c r="F20" s="17"/>
-      <c r="G20" s="8" t="s">
+      <c r="D22" s="16"/>
+      <c r="E22" s="16"/>
+      <c r="F22" s="17"/>
+      <c r="G22" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="H20" s="16"/>
-      <c r="I20" s="17"/>
+      <c r="H22" s="16"/>
+      <c r="I22" s="17"/>
     </row>
   </sheetData>
   <mergeCells count="12">
@@ -1000,7 +1064,7 @@
     <mergeCell ref="G14:G15"/>
     <mergeCell ref="H14:H15"/>
     <mergeCell ref="I14:I15"/>
-    <mergeCell ref="A17:H17"/>
+    <mergeCell ref="A19:H19"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1"/>
